--- a/wash_P/LUX.xlsx
+++ b/wash_P/LUX.xlsx
@@ -19171,10 +19171,10 @@
         <v>0</v>
       </c>
       <c r="MB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD6" t="n">
         <v>0</v>
